--- a/eletivas/01-capitalismo-contemporaneo/materiais/notas e alunos 2024.2.xlsx
+++ b/eletivas/01-capitalismo-contemporaneo/materiais/notas e alunos 2024.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anamc\OneDrive\Documentos\Backup Computador Antigo\2024.2\capitalismo contemporâneo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E416690A-3164-4464-AF4E-8221AE73E3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAAFA07-F2F3-4782-B797-55794A73E0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB20A99E-A3FA-4E3F-8566-BB7A10F13093}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="228">
   <si>
     <t> ARANDES GOMES DE SOUZA JUNIOR </t>
   </si>
@@ -532,9 +532,6 @@
     <t>PEDRO DE LIMA FERNANDES COSTA </t>
   </si>
   <si>
-    <t> pedro.diasfalcao@ufpe.br</t>
-  </si>
-  <si>
     <t>PRISCILLA NERY ARAUJO DE PAULA</t>
   </si>
   <si>
@@ -629,6 +626,99 @@
   </si>
   <si>
     <t>yuri.marinho@ufpe.br</t>
+  </si>
+  <si>
+    <t>JOSE GUILHERME PILE PEREIRA DA LUZ</t>
+  </si>
+  <si>
+    <t>guilherme.pile@ufpe.br</t>
+  </si>
+  <si>
+    <t>KAUAN HENRIQUE PEREIRA DO CARMO</t>
+  </si>
+  <si>
+    <t>kauan.henrique@ufpe.br</t>
+  </si>
+  <si>
+    <t>LEONARDO GOMES FALCAO</t>
+  </si>
+  <si>
+    <t>leonardo.gomesfalcao@ufpe.br</t>
+  </si>
+  <si>
+    <t>SHARLON DO NASCIMENTO DAMASCENO</t>
+  </si>
+  <si>
+    <t>sharlon.damasceno@ufpe.br</t>
+  </si>
+  <si>
+    <t>CAYO LIMA BARROS</t>
+  </si>
+  <si>
+    <t>cayo.barros@ufpe.br</t>
+  </si>
+  <si>
+    <t>DAYANA DO CARMO MORGAN DA SILVA</t>
+  </si>
+  <si>
+    <t>dayana.morgan@ufpe.br</t>
+  </si>
+  <si>
+    <t>EDUARDO LIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>eduardo_liras@outlook.com</t>
+  </si>
+  <si>
+    <t>EVELLYN KAMILLA MENDES MOTA</t>
+  </si>
+  <si>
+    <t>evellyn.mendes@ufpe.br</t>
+  </si>
+  <si>
+    <t>GABRIEL DE ALMEIDA SANTOS</t>
+  </si>
+  <si>
+    <t>gabriel.almeidas@ufpe.br</t>
+  </si>
+  <si>
+    <t>GABRIEL SOUSA FERNANDES</t>
+  </si>
+  <si>
+    <t>gabriel.sousafernandes@ufpe.br</t>
+  </si>
+  <si>
+    <t>KEMUEL JOAO DOS SANTOS ALVES</t>
+  </si>
+  <si>
+    <t>kemuel.joao@ufpe.br</t>
+  </si>
+  <si>
+    <t>LARISSA RODRIGUES ANDRE DA SILVA</t>
+  </si>
+  <si>
+    <t>larissa.andre@ufpe.br</t>
+  </si>
+  <si>
+    <t>LETICIA MARTINS VALENCA</t>
+  </si>
+  <si>
+    <t> leticia.valenca@ufpe.br</t>
+  </si>
+  <si>
+    <t>PEDRO LUCAS DIAS FALCAO</t>
+  </si>
+  <si>
+    <t>pedro.lfcosta@ufpe.br</t>
+  </si>
+  <si>
+    <t>pedro.diasfalcao@ufpe.br</t>
+  </si>
+  <si>
+    <t>VICTOR GABRIEL LINS DE ARAUJO</t>
+  </si>
+  <si>
+    <t>victor.linsaraujo@ufpe.br</t>
   </si>
 </sst>
 </file>
@@ -980,16 +1070,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D337B5E-BD8C-45ED-BA32-DBCB69992B37}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H81" sqref="G1:H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1137,10 +1229,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1148,10 +1240,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1159,21 +1251,21 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1181,10 +1273,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -1192,10 +1284,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -1203,89 +1295,133 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>53</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <v>10</v>
       </c>
     </row>
@@ -1296,16 +1432,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1653BD57-D0A6-4BA4-8E4E-338EAA3F7740}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1326,6 +1464,9 @@
       <c r="B2" t="s">
         <v>59</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1334,6 +1475,9 @@
       <c r="B3" t="s">
         <v>61</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1342,6 +1486,9 @@
       <c r="B4" t="s">
         <v>63</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1350,6 +1497,9 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1358,6 +1508,9 @@
       <c r="B6" t="s">
         <v>67</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1366,6 +1519,9 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -1374,6 +1530,9 @@
       <c r="B8" t="s">
         <v>70</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1382,6 +1541,9 @@
       <c r="B9" t="s">
         <v>72</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1390,6 +1552,9 @@
       <c r="B10" t="s">
         <v>74</v>
       </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1398,6 +1563,9 @@
       <c r="B11" t="s">
         <v>76</v>
       </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1406,6 +1574,9 @@
       <c r="B12" t="s">
         <v>78</v>
       </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1414,6 +1585,9 @@
       <c r="B13" t="s">
         <v>80</v>
       </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1422,6 +1596,9 @@
       <c r="B14" t="s">
         <v>82</v>
       </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1430,6 +1607,9 @@
       <c r="B15" t="s">
         <v>84</v>
       </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1438,453 +1618,767 @@
       <c r="B16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>87</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>89</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>91</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>93</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>97</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>99</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>102</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="C30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>104</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="C32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>107</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B34" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="C34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>109</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B35" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="C35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>111</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B36" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="C36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>113</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B37" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="C37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>115</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B38" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="C38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>117</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B39" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="C39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>119</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B40" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="C40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>121</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B41" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="C41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>105</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B42" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="C42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>124</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="C43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>126</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B44" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="C44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>128</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B45" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="C45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>130</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B46" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>132</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B50" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="C50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>134</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B51" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>136</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B52" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="C52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>138</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B53" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="C53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>140</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B54" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="C54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>142</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B56" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="C56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>144</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B57" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="C57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>146</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B58" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="C58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>148</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B59" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="C59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>150</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B60" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="C60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>152</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B61" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="C61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>154</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B62" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="C62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>156</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B63" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="C63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>158</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B64" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="C64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>160</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B65" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="C65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>162</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B66" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="C66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>164</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B67" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B69" t="s">
         <v>166</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="B70" t="s">
         <v>168</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B71" t="s">
         <v>170</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B72" t="s">
         <v>172</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="B73" t="s">
         <v>174</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="B74" t="s">
         <v>176</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="B75" t="s">
         <v>178</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="B76" t="s">
         <v>180</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="B77" t="s">
         <v>182</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B79" t="s">
         <v>184</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B80" t="s">
         <v>186</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="B81" t="s">
         <v>188</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="B82" t="s">
         <v>190</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="B83" t="s">
         <v>192</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="B84" t="s">
         <v>194</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="B85" t="s">
         <v>196</v>
       </c>
-      <c r="B72" t="s">
-        <v>197</v>
+      <c r="C85">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
